--- a/BackTest/2020-01-20 BackTest XMR.xlsx
+++ b/BackTest/2020-01-20 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-221.476825594392</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-223.326925594392</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-223.326925594392</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-223.643025594392</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-212.712825594392</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-212.712825594392</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-63.84402559439201</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-66.84402559439201</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-66.98162559439201</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-130.819025594392</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-130.819025594392</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-159.5189478022691</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-81.97104780226904</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-78.02264780226903</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-78.58684780226903</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-125.852847802269</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-126.943447802269</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-115.719147802269</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-115.732047802269</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-115.745047802269</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-123.973647802269</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-123.906647802269</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-123.886647802269</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-124.653647802269</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-124.532047802269</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-121.864447802269</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-128.2551478022691</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-163.544847802269</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-163.544847802269</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-163.544847802269</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-163.558247802269</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-163.956247802269</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-163.956247802269</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-163.822747802269</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,21 @@
         <v>-169.218047802269</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>74900</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3493,19 @@
         <v>-167.470047802269</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3530,21 @@
         <v>-167.470047802269</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>74400</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,20 +3571,17 @@
       <c r="H96" t="n">
         <v>1</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>74400</v>
-      </c>
-      <c r="K96" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3882,24 +3608,17 @@
       <c r="H97" t="n">
         <v>1</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>74100</v>
-      </c>
-      <c r="K97" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3926,24 +3645,17 @@
       <c r="H98" t="n">
         <v>1</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K98" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3970,24 +3682,17 @@
       <c r="H99" t="n">
         <v>1</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K99" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4012,26 +3717,21 @@
         <v>-203.704047802269</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>73600</v>
       </c>
-      <c r="K100" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4056,26 +3756,21 @@
         <v>-201.704047802269</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
         <v>74400</v>
       </c>
-      <c r="K101" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4100,26 +3795,21 @@
         <v>-201.682747802269</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>74950</v>
       </c>
-      <c r="K102" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4144,26 +3834,19 @@
         <v>-201.682747802269</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>75100</v>
-      </c>
-      <c r="K103" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4188,26 +3871,21 @@
         <v>-201.709547802269</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
         <v>75100</v>
       </c>
-      <c r="K104" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4232,26 +3910,19 @@
         <v>-203.6054478022691</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>74950</v>
-      </c>
-      <c r="K105" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4276,28 +3947,23 @@
         <v>-203.632447802269</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
         <v>74050</v>
       </c>
-      <c r="K106" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest XMR.xlsx
+++ b/BackTest/2020-01-20 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-221.476825594392</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-223.326925594392</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-223.326925594392</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-223.643025594392</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-212.712825594392</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-212.712825594392</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-63.84402559439201</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-66.84402559439201</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-66.98162559439201</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-130.819025594392</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-130.819025594392</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-159.5189478022691</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-81.97104780226904</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-79.30224780226904</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-78.02264780226903</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-78.69704780226904</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-78.58684780226903</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-78.55934780226903</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-125.852847802269</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-125.172847802269</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-126.943447802269</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-124.506647802269</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-116.049147802269</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-115.719147802269</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-115.732047802269</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-115.745047802269</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-123.973647802269</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-123.906647802269</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-123.886647802269</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-124.653647802269</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-124.532047802269</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-121.864447802269</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-122.076347802269</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-128.2551478022691</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-163.544847802269</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-163.544847802269</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-163.544847802269</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-163.558247802269</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-163.956247802269</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3390,8 +3390,12 @@
       <c r="H91" t="n">
         <v>1</v>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>74400</v>
+      </c>
+      <c r="J91" t="n">
+        <v>74400</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3423,9 +3427,17 @@
       <c r="H92" t="n">
         <v>1</v>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>74400</v>
+      </c>
+      <c r="J92" t="n">
+        <v>74400</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,12 +3466,12 @@
         <v>-169.218047802269</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>74900</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>74400</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3495,8 +3507,12 @@
       <c r="H94" t="n">
         <v>1</v>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>74150</v>
+      </c>
+      <c r="J94" t="n">
+        <v>74400</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3530,12 +3546,14 @@
         <v>-167.470047802269</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>74400</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>74400</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,8 +3589,12 @@
       <c r="H96" t="n">
         <v>1</v>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>74400</v>
+      </c>
+      <c r="J96" t="n">
+        <v>74400</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3608,8 +3630,12 @@
       <c r="H97" t="n">
         <v>1</v>
       </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>74100</v>
+      </c>
+      <c r="J97" t="n">
+        <v>74400</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,10 +3669,12 @@
         <v>-200.707947802269</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>74400</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3682,8 +3710,12 @@
       <c r="H99" t="n">
         <v>1</v>
       </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>74000</v>
+      </c>
+      <c r="J99" t="n">
+        <v>74400</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3717,12 +3749,14 @@
         <v>-203.704047802269</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>73600</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>74400</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,12 +3790,14 @@
         <v>-201.704047802269</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>74400</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>74400</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3795,12 +3831,14 @@
         <v>-201.682747802269</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>74950</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>74400</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,7 +3875,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>74400</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3871,12 +3911,14 @@
         <v>-201.709547802269</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>75100</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>74400</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3910,10 +3952,14 @@
         <v>-203.6054478022691</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>74950</v>
+      </c>
+      <c r="J105" t="n">
+        <v>74400</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3947,12 +3993,14 @@
         <v>-203.632447802269</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>74050</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>74400</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3964,6 +4012,6 @@
       <c r="M106" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest XMR.xlsx
+++ b/BackTest/2020-01-20 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1474,7 +1474,7 @@
         <v>-130.819025594392</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-130.806025594392</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-143.997125594392</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-154.799625594392</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-154.799625594392</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-154.154047802269</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-154.455447802269</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-156.462847802269</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-155.499247802269</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-155.499247802269</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-158.546647802269</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-159.204147802269</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-159.504147802269</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-160.233447802269</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-159.5189478022691</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-154.531447802269</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-79.30224780226904</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-78.69704780226904</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-78.55934780226903</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-125.852847802269</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-125.172847802269</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-126.943447802269</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-124.506647802269</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-116.049147802269</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-115.719147802269</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-115.732047802269</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-115.745047802269</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-123.973647802269</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-123.906647802269</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-123.886647802269</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-124.653647802269</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-124.532047802269</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-121.864447802269</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-122.076347802269</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-128.2551478022691</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3388,14 +3388,10 @@
         <v>-163.956247802269</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>74400</v>
-      </c>
-      <c r="J91" t="n">
-        <v>74400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3425,19 +3421,11 @@
         <v>-163.822747802269</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>74400</v>
-      </c>
-      <c r="J92" t="n">
-        <v>74400</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3469,258 +3457,218 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>74350</v>
+      </c>
+      <c r="C94" t="n">
         <v>74400</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="D94" t="n">
+        <v>74400</v>
+      </c>
+      <c r="E94" t="n">
+        <v>74350</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-167.470047802269</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>74400</v>
+      </c>
+      <c r="C95" t="n">
+        <v>74400</v>
+      </c>
+      <c r="D95" t="n">
+        <v>74400</v>
+      </c>
+      <c r="E95" t="n">
+        <v>74400</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.4844</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-167.470047802269</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>74100</v>
+      </c>
+      <c r="C96" t="n">
+        <v>74100</v>
+      </c>
+      <c r="D96" t="n">
+        <v>74100</v>
+      </c>
+      <c r="E96" t="n">
+        <v>74100</v>
+      </c>
+      <c r="F96" t="n">
+        <v>30.3772</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-197.847247802269</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>74000</v>
+      </c>
+      <c r="C97" t="n">
+        <v>74000</v>
+      </c>
+      <c r="D97" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E97" t="n">
+        <v>74000</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.8607</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-200.707947802269</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>74000</v>
+      </c>
+      <c r="C98" t="n">
+        <v>74000</v>
+      </c>
+      <c r="D98" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E98" t="n">
+        <v>74000</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5.0108</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-200.707947802269</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>74000</v>
+      </c>
+      <c r="J98" t="n">
+        <v>74000</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>74000</v>
+      </c>
+      <c r="C99" t="n">
+        <v>73600</v>
+      </c>
+      <c r="D99" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E99" t="n">
+        <v>73600</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4.9857</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-205.693647802269</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>74000</v>
+      </c>
+      <c r="J99" t="n">
+        <v>74000</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>74350</v>
-      </c>
-      <c r="C94" t="n">
-        <v>74400</v>
-      </c>
-      <c r="D94" t="n">
-        <v>74400</v>
-      </c>
-      <c r="E94" t="n">
-        <v>74350</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-167.470047802269</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>74150</v>
-      </c>
-      <c r="J94" t="n">
-        <v>74400</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>74400</v>
-      </c>
-      <c r="C95" t="n">
-        <v>74400</v>
-      </c>
-      <c r="D95" t="n">
-        <v>74400</v>
-      </c>
-      <c r="E95" t="n">
-        <v>74400</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.4844</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-167.470047802269</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>74400</v>
-      </c>
-      <c r="J95" t="n">
-        <v>74400</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>74100</v>
-      </c>
-      <c r="C96" t="n">
-        <v>74100</v>
-      </c>
-      <c r="D96" t="n">
-        <v>74100</v>
-      </c>
-      <c r="E96" t="n">
-        <v>74100</v>
-      </c>
-      <c r="F96" t="n">
-        <v>30.3772</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-197.847247802269</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>74400</v>
-      </c>
-      <c r="J96" t="n">
-        <v>74400</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>74000</v>
-      </c>
-      <c r="C97" t="n">
-        <v>74000</v>
-      </c>
-      <c r="D97" t="n">
-        <v>74000</v>
-      </c>
-      <c r="E97" t="n">
-        <v>74000</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2.8607</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-200.707947802269</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>74100</v>
-      </c>
-      <c r="J97" t="n">
-        <v>74400</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>74000</v>
-      </c>
-      <c r="C98" t="n">
-        <v>74000</v>
-      </c>
-      <c r="D98" t="n">
-        <v>74000</v>
-      </c>
-      <c r="E98" t="n">
-        <v>74000</v>
-      </c>
-      <c r="F98" t="n">
-        <v>5.0108</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-200.707947802269</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>74400</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>74000</v>
-      </c>
-      <c r="C99" t="n">
-        <v>73600</v>
-      </c>
-      <c r="D99" t="n">
-        <v>74000</v>
-      </c>
-      <c r="E99" t="n">
-        <v>73600</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4.9857</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-205.693647802269</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>74000</v>
-      </c>
-      <c r="J99" t="n">
-        <v>74400</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3703,7 @@
         <v>73600</v>
       </c>
       <c r="J100" t="n">
-        <v>74400</v>
+        <v>74000</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3796,7 +3744,7 @@
         <v>74400</v>
       </c>
       <c r="J101" t="n">
-        <v>74400</v>
+        <v>74000</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3837,7 +3785,7 @@
         <v>74950</v>
       </c>
       <c r="J102" t="n">
-        <v>74400</v>
+        <v>74000</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3872,11 +3820,13 @@
         <v>-201.682747802269</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>75100</v>
+      </c>
       <c r="J103" t="n">
-        <v>74400</v>
+        <v>74000</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3917,7 +3867,7 @@
         <v>75100</v>
       </c>
       <c r="J104" t="n">
-        <v>74400</v>
+        <v>74000</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3958,7 +3908,7 @@
         <v>74950</v>
       </c>
       <c r="J105" t="n">
-        <v>74400</v>
+        <v>74000</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -3999,7 +3949,7 @@
         <v>74050</v>
       </c>
       <c r="J106" t="n">
-        <v>74400</v>
+        <v>74000</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4012,6 +3962,6 @@
       <c r="M106" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest XMR.xlsx
+++ b/BackTest/2020-01-20 BackTest XMR.xlsx
@@ -847,7 +847,7 @@
         <v>-63.84402559439201</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1144,10 +1144,14 @@
         <v>-66.35342559439201</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>76750</v>
+      </c>
+      <c r="J23" t="n">
+        <v>76750</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1180,8 +1184,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>76750</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1223,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>76750</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1474,7 +1490,7 @@
         <v>-130.819025594392</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1556,7 @@
         <v>-130.806025594392</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1589,7 @@
         <v>-143.997125594392</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1622,7 @@
         <v>-154.799625594392</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1655,7 @@
         <v>-154.799625594392</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1688,7 @@
         <v>-154.154047802269</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1721,7 @@
         <v>-154.455447802269</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1754,7 @@
         <v>-156.462847802269</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1787,7 @@
         <v>-155.499247802269</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1820,7 @@
         <v>-155.499247802269</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1853,7 @@
         <v>-158.546647802269</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1886,7 @@
         <v>-159.204147802269</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1919,7 @@
         <v>-159.504147802269</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1952,7 @@
         <v>-160.233447802269</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1985,7 @@
         <v>-159.5189478022691</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2018,7 @@
         <v>-154.531447802269</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2101,7 +2117,7 @@
         <v>-78.02264780226903</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2183,7 @@
         <v>-78.58684780226903</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2216,7 @@
         <v>-78.55934780226903</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2249,7 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2282,7 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2315,7 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2348,7 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2381,7 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2414,7 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2447,7 @@
         <v>-125.852847802269</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2480,7 @@
         <v>-125.172847802269</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2513,7 @@
         <v>-126.943447802269</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2546,7 @@
         <v>-124.506647802269</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2579,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2645,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2711,7 @@
         <v>-116.049147802269</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2744,7 @@
         <v>-115.719147802269</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2777,7 @@
         <v>-115.732047802269</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2810,7 @@
         <v>-115.745047802269</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2843,7 @@
         <v>-123.973647802269</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2876,7 @@
         <v>-123.906647802269</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2909,7 @@
         <v>-123.886647802269</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2942,7 @@
         <v>-124.653647802269</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2975,7 @@
         <v>-124.532047802269</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3008,7 @@
         <v>-121.864447802269</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3041,7 @@
         <v>-122.076347802269</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3074,7 @@
         <v>-128.2551478022691</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3140,7 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3173,7 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3355,10 +3371,14 @@
         <v>-163.956247802269</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>74600</v>
+      </c>
+      <c r="J90" t="n">
+        <v>74600</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3388,11 +3408,19 @@
         <v>-163.956247802269</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>74400</v>
+      </c>
+      <c r="J91" t="n">
+        <v>74600</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3449,19 @@
         <v>-163.822747802269</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>74400</v>
+      </c>
+      <c r="J92" t="n">
+        <v>74600</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-20 BackTest XMR.xlsx
+++ b/BackTest/2020-01-20 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4.4968</v>
       </c>
       <c r="G2" t="n">
-        <v>-221.476825594392</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1.8501</v>
       </c>
       <c r="G3" t="n">
-        <v>-223.326925594392</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>0.4477</v>
       </c>
       <c r="G4" t="n">
-        <v>-223.326925594392</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>0.3161</v>
       </c>
       <c r="G5" t="n">
-        <v>-223.643025594392</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>0.1316</v>
       </c>
       <c r="G6" t="n">
-        <v>-223.774625594392</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1.361</v>
       </c>
       <c r="G7" t="n">
-        <v>-222.413625594392</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>9.700799999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-212.712825594392</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>0.26</v>
       </c>
       <c r="G9" t="n">
-        <v>-212.712825594392</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>0.0238</v>
       </c>
       <c r="G10" t="n">
-        <v>-212.736625594392</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.0332</v>
       </c>
       <c r="G11" t="n">
-        <v>-212.703425594392</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>160.8225</v>
       </c>
       <c r="G12" t="n">
-        <v>-51.88092559439201</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>0.3831</v>
       </c>
       <c r="G13" t="n">
-        <v>-52.26402559439201</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>11.58</v>
       </c>
       <c r="G14" t="n">
-        <v>-63.84402559439201</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>-66.84402559439201</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>0.1376</v>
       </c>
       <c r="G16" t="n">
-        <v>-66.98162559439201</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>92.6161</v>
       </c>
       <c r="G17" t="n">
-        <v>-66.98162559439201</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>80.6621</v>
       </c>
       <c r="G18" t="n">
-        <v>-66.98162559439201</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>23.0004</v>
       </c>
       <c r="G19" t="n">
-        <v>-66.98162559439201</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>38.9789</v>
       </c>
       <c r="G20" t="n">
-        <v>-66.98162559439201</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>8.4322</v>
       </c>
       <c r="G21" t="n">
-        <v>-66.98162559439201</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>7.0832</v>
       </c>
       <c r="G22" t="n">
-        <v>-66.98162559439201</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,22 +1073,15 @@
         <v>0.6282</v>
       </c>
       <c r="G23" t="n">
-        <v>-66.35342559439201</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>76750</v>
-      </c>
-      <c r="J23" t="n">
-        <v>76750</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1178,24 +1103,15 @@
         <v>0.9219000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-65.43152559439201</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>76750</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1217,24 +1133,15 @@
         <v>13.1811</v>
       </c>
       <c r="G25" t="n">
-        <v>-52.25042559439201</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>76750</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1256,18 +1163,15 @@
         <v>1.3077</v>
       </c>
       <c r="G26" t="n">
-        <v>-50.94272559439202</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1289,18 +1193,15 @@
         <v>1.7843</v>
       </c>
       <c r="G27" t="n">
-        <v>-50.94272559439202</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1322,18 +1223,15 @@
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>-59.94272559439202</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1355,18 +1253,15 @@
         <v>11.8713</v>
       </c>
       <c r="G29" t="n">
-        <v>-71.81402559439202</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1388,18 +1283,15 @@
         <v>0.9431</v>
       </c>
       <c r="G30" t="n">
-        <v>-70.87092559439202</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1421,18 +1313,15 @@
         <v>59.9481</v>
       </c>
       <c r="G31" t="n">
-        <v>-130.819025594392</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1454,18 +1343,15 @@
         <v>2.2868</v>
       </c>
       <c r="G32" t="n">
-        <v>-130.819025594392</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1487,18 +1373,15 @@
         <v>0.9167</v>
       </c>
       <c r="G33" t="n">
-        <v>-130.819025594392</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1520,18 +1403,15 @@
         <v>76.6087</v>
       </c>
       <c r="G34" t="n">
-        <v>-130.819025594392</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1553,18 +1433,15 @@
         <v>0.013</v>
       </c>
       <c r="G35" t="n">
-        <v>-130.806025594392</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1586,18 +1463,15 @@
         <v>13.1911</v>
       </c>
       <c r="G36" t="n">
-        <v>-143.997125594392</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1619,18 +1493,15 @@
         <v>10.8025</v>
       </c>
       <c r="G37" t="n">
-        <v>-154.799625594392</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1652,18 +1523,15 @@
         <v>5.575</v>
       </c>
       <c r="G38" t="n">
-        <v>-154.799625594392</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1685,18 +1553,15 @@
         <v>0.645577792123</v>
       </c>
       <c r="G39" t="n">
-        <v>-154.154047802269</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,18 +1583,15 @@
         <v>0.3014</v>
       </c>
       <c r="G40" t="n">
-        <v>-154.455447802269</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1751,18 +1613,15 @@
         <v>2.0074</v>
       </c>
       <c r="G41" t="n">
-        <v>-156.462847802269</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1784,18 +1643,15 @@
         <v>0.9636</v>
       </c>
       <c r="G42" t="n">
-        <v>-155.499247802269</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1817,18 +1673,15 @@
         <v>1.5</v>
       </c>
       <c r="G43" t="n">
-        <v>-155.499247802269</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1850,18 +1703,15 @@
         <v>3.0474</v>
       </c>
       <c r="G44" t="n">
-        <v>-158.546647802269</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1883,18 +1733,15 @@
         <v>0.6575</v>
       </c>
       <c r="G45" t="n">
-        <v>-159.204147802269</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1916,18 +1763,15 @@
         <v>0.3</v>
       </c>
       <c r="G46" t="n">
-        <v>-159.504147802269</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1949,18 +1793,15 @@
         <v>0.7292999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-160.233447802269</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1982,18 +1823,15 @@
         <v>0.7145</v>
       </c>
       <c r="G48" t="n">
-        <v>-159.5189478022691</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2015,18 +1853,15 @@
         <v>4.9875</v>
       </c>
       <c r="G49" t="n">
-        <v>-154.531447802269</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2048,18 +1883,15 @@
         <v>72.5604</v>
       </c>
       <c r="G50" t="n">
-        <v>-81.97104780226904</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2081,18 +1913,15 @@
         <v>2.6688</v>
       </c>
       <c r="G51" t="n">
-        <v>-79.30224780226904</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2114,18 +1943,15 @@
         <v>1.2796</v>
       </c>
       <c r="G52" t="n">
-        <v>-78.02264780226903</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2147,18 +1973,15 @@
         <v>0.6744</v>
       </c>
       <c r="G53" t="n">
-        <v>-78.69704780226904</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2180,18 +2003,15 @@
         <v>0.1102</v>
       </c>
       <c r="G54" t="n">
-        <v>-78.58684780226903</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2213,18 +2033,15 @@
         <v>0.0275</v>
       </c>
       <c r="G55" t="n">
-        <v>-78.55934780226903</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2246,18 +2063,15 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-79.55934780226903</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2279,18 +2093,15 @@
         <v>13.5948</v>
       </c>
       <c r="G57" t="n">
-        <v>-79.55934780226903</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2312,18 +2123,15 @@
         <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>-83.55934780226903</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2345,18 +2153,15 @@
         <v>0.6065</v>
       </c>
       <c r="G59" t="n">
-        <v>-83.55934780226903</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2378,18 +2183,15 @@
         <v>2.3062</v>
       </c>
       <c r="G60" t="n">
-        <v>-85.86554780226903</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2411,18 +2213,15 @@
         <v>0.0129</v>
       </c>
       <c r="G61" t="n">
-        <v>-85.86554780226903</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2444,18 +2243,15 @@
         <v>39.9873</v>
       </c>
       <c r="G62" t="n">
-        <v>-125.852847802269</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2477,18 +2273,15 @@
         <v>0.68</v>
       </c>
       <c r="G63" t="n">
-        <v>-125.172847802269</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2510,18 +2303,15 @@
         <v>1.7706</v>
       </c>
       <c r="G64" t="n">
-        <v>-126.943447802269</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2543,18 +2333,15 @@
         <v>2.4368</v>
       </c>
       <c r="G65" t="n">
-        <v>-124.506647802269</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2576,18 +2363,15 @@
         <v>6.5668</v>
       </c>
       <c r="G66" t="n">
-        <v>-117.939847802269</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2609,18 +2393,15 @@
         <v>27.4236</v>
       </c>
       <c r="G67" t="n">
-        <v>-117.939847802269</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2642,18 +2423,15 @@
         <v>20.2886</v>
       </c>
       <c r="G68" t="n">
-        <v>-117.939847802269</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2675,18 +2453,15 @@
         <v>0.0264</v>
       </c>
       <c r="G69" t="n">
-        <v>-117.939847802269</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2708,18 +2483,15 @@
         <v>1.8907</v>
       </c>
       <c r="G70" t="n">
-        <v>-116.049147802269</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2741,18 +2513,15 @@
         <v>0.33</v>
       </c>
       <c r="G71" t="n">
-        <v>-115.719147802269</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2774,18 +2543,15 @@
         <v>0.0129</v>
       </c>
       <c r="G72" t="n">
-        <v>-115.732047802269</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2807,18 +2573,15 @@
         <v>0.013</v>
       </c>
       <c r="G73" t="n">
-        <v>-115.745047802269</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2840,18 +2603,15 @@
         <v>8.2286</v>
       </c>
       <c r="G74" t="n">
-        <v>-123.973647802269</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2873,18 +2633,15 @@
         <v>0.067</v>
       </c>
       <c r="G75" t="n">
-        <v>-123.906647802269</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2906,18 +2663,15 @@
         <v>0.02</v>
       </c>
       <c r="G76" t="n">
-        <v>-123.886647802269</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2939,18 +2693,15 @@
         <v>0.767</v>
       </c>
       <c r="G77" t="n">
-        <v>-124.653647802269</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2972,18 +2723,15 @@
         <v>0.1216</v>
       </c>
       <c r="G78" t="n">
-        <v>-124.532047802269</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3005,18 +2753,15 @@
         <v>2.6676</v>
       </c>
       <c r="G79" t="n">
-        <v>-121.864447802269</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3038,18 +2783,15 @@
         <v>0.2119</v>
       </c>
       <c r="G80" t="n">
-        <v>-122.076347802269</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3071,18 +2813,15 @@
         <v>6.1788</v>
       </c>
       <c r="G81" t="n">
-        <v>-128.2551478022691</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3104,18 +2843,15 @@
         <v>19.272</v>
       </c>
       <c r="G82" t="n">
-        <v>-147.527147802269</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3137,18 +2873,15 @@
         <v>104.5634</v>
       </c>
       <c r="G83" t="n">
-        <v>-147.527147802269</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3170,18 +2903,15 @@
         <v>48.0029</v>
       </c>
       <c r="G84" t="n">
-        <v>-147.527147802269</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3203,18 +2933,15 @@
         <v>6.1688</v>
       </c>
       <c r="G85" t="n">
-        <v>-153.695947802269</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3236,18 +2963,15 @@
         <v>9.8489</v>
       </c>
       <c r="G86" t="n">
-        <v>-163.544847802269</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3269,18 +2993,15 @@
         <v>0.86</v>
       </c>
       <c r="G87" t="n">
-        <v>-163.544847802269</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3302,18 +3023,15 @@
         <v>0.1624</v>
       </c>
       <c r="G88" t="n">
-        <v>-163.544847802269</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3335,18 +3053,15 @@
         <v>0.0134</v>
       </c>
       <c r="G89" t="n">
-        <v>-163.558247802269</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3368,22 +3083,15 @@
         <v>0.398</v>
       </c>
       <c r="G90" t="n">
-        <v>-163.956247802269</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>74600</v>
-      </c>
-      <c r="J90" t="n">
-        <v>74600</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3405,26 +3113,15 @@
         <v>0.3301</v>
       </c>
       <c r="G91" t="n">
-        <v>-163.956247802269</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>74400</v>
-      </c>
-      <c r="J91" t="n">
-        <v>74600</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3446,26 +3143,15 @@
         <v>0.1335</v>
       </c>
       <c r="G92" t="n">
-        <v>-163.822747802269</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>74400</v>
-      </c>
-      <c r="J92" t="n">
-        <v>74600</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3487,18 +3173,15 @@
         <v>5.3953</v>
       </c>
       <c r="G93" t="n">
-        <v>-169.218047802269</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3520,18 +3203,15 @@
         <v>1.748</v>
       </c>
       <c r="G94" t="n">
-        <v>-167.470047802269</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3553,18 +3233,15 @@
         <v>0.4844</v>
       </c>
       <c r="G95" t="n">
-        <v>-167.470047802269</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3586,18 +3263,15 @@
         <v>30.3772</v>
       </c>
       <c r="G96" t="n">
-        <v>-197.847247802269</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3619,18 +3293,15 @@
         <v>2.8607</v>
       </c>
       <c r="G97" t="n">
-        <v>-200.707947802269</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3652,22 +3323,15 @@
         <v>5.0108</v>
       </c>
       <c r="G98" t="n">
-        <v>-200.707947802269</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74000</v>
-      </c>
-      <c r="J98" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3689,26 +3353,21 @@
         <v>4.9857</v>
       </c>
       <c r="G99" t="n">
-        <v>-205.693647802269</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
         <v>74000</v>
       </c>
-      <c r="J99" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K99" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3730,26 +3389,21 @@
         <v>1.9896</v>
       </c>
       <c r="G100" t="n">
-        <v>-203.704047802269</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
         <v>73600</v>
       </c>
-      <c r="J100" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K100" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3771,26 +3425,21 @@
         <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>-201.704047802269</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
         <v>74400</v>
       </c>
-      <c r="J101" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K101" t="inlineStr">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3812,26 +3461,21 @@
         <v>0.0213</v>
       </c>
       <c r="G102" t="n">
-        <v>-201.682747802269</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
         <v>74950</v>
       </c>
-      <c r="J102" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K102" t="inlineStr">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3853,26 +3497,21 @@
         <v>7.9537</v>
       </c>
       <c r="G103" t="n">
-        <v>-201.682747802269</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
         <v>75100</v>
       </c>
-      <c r="J103" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K103" t="inlineStr">
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3894,26 +3533,21 @@
         <v>0.0268</v>
       </c>
       <c r="G104" t="n">
-        <v>-201.709547802269</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
         <v>75100</v>
       </c>
-      <c r="J104" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K104" t="inlineStr">
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3935,26 +3569,19 @@
         <v>1.8959</v>
       </c>
       <c r="G105" t="n">
-        <v>-203.6054478022691</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>74950</v>
-      </c>
-      <c r="J105" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3976,26 +3603,21 @@
         <v>0.027</v>
       </c>
       <c r="G106" t="n">
-        <v>-203.632447802269</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
         <v>74050</v>
       </c>
-      <c r="J106" t="n">
-        <v>74000</v>
-      </c>
-      <c r="K106" t="inlineStr">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
